--- a/output/datos_transformados_unificados.xlsx
+++ b/output/datos_transformados_unificados.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3078,6 +3078,874 @@
         </is>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>COOPERATIVA HORTOFRUTICOLA CARTAYA</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Z1</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>351</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3294</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>COOPERATIVA HORTOFRUTICOLA CARTAYA</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Z2</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>1203</v>
+      </c>
+      <c r="F87" t="n">
+        <v>32339.7</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>COOPERATIVA HORTOFRUTICOLA CARTAYA</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Z3</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>42393</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>COOPERATIVA HORTOFRUTICOLA CARTAYA</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Z4</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>597</v>
+      </c>
+      <c r="F89" t="n">
+        <v>27924</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>FRESLUCENA, S.A.</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Z1</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>FRESLUCENA, S.A.</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Z2</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>667.5</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>FRESLUCENA, S.A.</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Z3</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>FRESLUCENA, S.A.</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Z4</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ONUBAFRUIT</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Z1</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>351</v>
+      </c>
+      <c r="F94" t="n">
+        <v>3402</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>ONUBAFRUIT</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Z2</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>1731</v>
+      </c>
+      <c r="F95" t="n">
+        <v>52385.7</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>ONUBAFRUIT</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Z3</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>387</v>
+      </c>
+      <c r="F96" t="n">
+        <v>56688</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>ONUBAFRUIT</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Z4</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>1245</v>
+      </c>
+      <c r="F97" t="n">
+        <v>30147</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>S.A.T CONDADO DE HUELVA</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Z1</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>S.A.T CONDADO DE HUELVA</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Z2</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1074</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>S.A.T CONDADO DE HUELVA</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Z3</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>S.A.T CONDADO DE HUELVA</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Z4</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>S.C.A. COSTA DE HUELVA</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Z1</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>108</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>S.C.A. COSTA DE HUELVA</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Z2</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>528</v>
+      </c>
+      <c r="F103" t="n">
+        <v>8740.5</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>S.C.A. COSTA DE HUELVA</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Z3</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>3114</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>S.C.A. COSTA DE HUELVA</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Z4</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>648</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2223</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>S.C.A. NUESTRA SRA. LA BELLA</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Z1</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>S.C.A. NUESTRA SRA. LA BELLA</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Z2</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>9564</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>S.C.A. NUESTRA SRA. LA BELLA</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Z3</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>387</v>
+      </c>
+      <c r="F108" t="n">
+        <v>11181</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>S.C.A. NUESTRA SRA. LA BELLA</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Z4</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>VARIOS</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Z1</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>VARIOS</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Z2</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>VARIOS</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Z3</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45986</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>FRAMBUESA</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>VARIOS</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Z4</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>12 DATOS SEMANA ONUBAFRUIT 13112025 A 19112025.xlsx</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
